--- a/dados/RD_Municipio.xlsx
+++ b/dados/RD_Municipio.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/66dbe330cb88da91/COMPUTADOR SECULT/PNAB 2025/escutas_pnab2025/dados/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_1B4F80D795A4BBA2B1815F0F80012E37A98A275D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7476FAE-36DA-4385-8F22-1FEFB4CDB97E}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Página1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Página1!$A$1:$C$186</definedName>
+  </definedNames>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -22,653 +30,634 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="205">
   <si>
-    <t xml:space="preserve">municipio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">macrorreg_new</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agrestina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agreste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agreste Central</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alagoinha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Altinho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barra de Guabiraba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belo Jardim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bezerros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brejo da Madre de Deus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cachoeirinha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camocim de São Félix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caruaru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cupira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gravatá</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ibirajuba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jataúba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lagoa dos Gatos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panelas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pesqueira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riacho das Almas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sairé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanharó</t>
-  </si>
-  <si>
-    <t xml:space="preserve">São Bento do Una</t>
-  </si>
-  <si>
-    <t xml:space="preserve">São Caitano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">São Joaquim do Monte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tacaimbó</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Águas Belas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agreste Meridional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angelim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bom Conselho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brejão</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buíque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caetés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calçado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canhotinho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capoeiras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correntes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garanhuns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Itaíba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jucati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jupi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jurema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lagoa do Ouro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lajedo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palmeirina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paranatama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saloá</t>
-  </si>
-  <si>
-    <t xml:space="preserve">São João</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terezinha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tupanatinga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venturosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bom Jardim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agreste Setentrional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Casinhas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cumaru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feira Nova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frei Miguelinho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">João Alfredo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limoeiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orobó</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salgadinho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santa Cruz do Capibaribe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santa Maria do Cambucá</t>
-  </si>
-  <si>
-    <t xml:space="preserve">São Vicente Férrer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surubim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taquaritinga do Norte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toritama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vertente do Lério</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vertentes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camaragibe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metropolitana Centro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olinda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recife</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abreu e Lima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Araçoiaba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Igarassu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ilha de Itamaracá</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Itapissuma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paulista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cabo de Santo Agostinho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metropolita Oeste Sul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ipojuca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaboatão dos Guararapes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moreno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fernando de Noronha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">São Lourenço da Mata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Araripina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sertão</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sertão do Araripe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bodocó</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Granito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ipubi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moreilândia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ouricuri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santa Cruz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santa Filomena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trindade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cedro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sertão Central</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mirandiba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parnamirim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salgueiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">São José do Belmonte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serrita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terra Nova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verdejante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belém de São Francisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sertão de Itaparica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carnaubeira da Penha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floresta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Itacuruba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jatobá</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petrolândia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tacaratu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arcoverde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sertão do Moxotó</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Betânia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Custódia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ibimirim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inajá</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sertânia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afogados da Ingazeira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sertão do Pajeú</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brejinho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calumbi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carnaíba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iguaraci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingazeira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Itapetim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quixaba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santa Cruz da Baixa Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santa Terezinha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">São José do Egito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serra Talhada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solidão</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tabira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Triunfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuparetama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afrânio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sertão do São Francisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cabrobó</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dormentes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lagoa Grande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orocó</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petrolina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santa Maria da Boa Vista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aliança</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mata Norte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buenos Aires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camutanga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carpina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chã de Alegria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ferreiros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glória do Goitá</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Itambé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Itaquitinga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lagoa do Itaenga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lagoa do Carro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macaparana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nazaré da Mata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paudalho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timbaúba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tracunhaém</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vicência</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Água Preta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mata Sul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amaraji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barreiros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belém de Maria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catende</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chã Grande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cortês</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gameleira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaqueira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joaquim Nabuco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maraial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palmares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pombos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primavera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quipapá</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ribeirão</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rio Formoso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">São Benedito do Sul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">São José da Coroa Grande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sirinhaém</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tamandaré</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitória de Santo Antão</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xexéu</t>
+    <t>municipio</t>
+  </si>
+  <si>
+    <t>macrorreg_new</t>
+  </si>
+  <si>
+    <t>rd</t>
+  </si>
+  <si>
+    <t>Agrestina</t>
+  </si>
+  <si>
+    <t>Agreste</t>
+  </si>
+  <si>
+    <t>Agreste Central</t>
+  </si>
+  <si>
+    <t>Alagoinha</t>
+  </si>
+  <si>
+    <t>Altinho</t>
+  </si>
+  <si>
+    <t>Barra de Guabiraba</t>
+  </si>
+  <si>
+    <t>Belo Jardim</t>
+  </si>
+  <si>
+    <t>Bezerros</t>
+  </si>
+  <si>
+    <t>Bonito</t>
+  </si>
+  <si>
+    <t>Brejo da Madre de Deus</t>
+  </si>
+  <si>
+    <t>Cachoeirinha</t>
+  </si>
+  <si>
+    <t>Camocim de São Félix</t>
+  </si>
+  <si>
+    <t>Caruaru</t>
+  </si>
+  <si>
+    <t>Cupira</t>
+  </si>
+  <si>
+    <t>Gravatá</t>
+  </si>
+  <si>
+    <t>Ibirajuba</t>
+  </si>
+  <si>
+    <t>Jataúba</t>
+  </si>
+  <si>
+    <t>Lagoa dos Gatos</t>
+  </si>
+  <si>
+    <t>Panelas</t>
+  </si>
+  <si>
+    <t>Pesqueira</t>
+  </si>
+  <si>
+    <t>Poção</t>
+  </si>
+  <si>
+    <t>Riacho das Almas</t>
+  </si>
+  <si>
+    <t>Sairé</t>
+  </si>
+  <si>
+    <t>Sanharó</t>
+  </si>
+  <si>
+    <t>São Bento do Una</t>
+  </si>
+  <si>
+    <t>São Caitano</t>
+  </si>
+  <si>
+    <t>São Joaquim do Monte</t>
+  </si>
+  <si>
+    <t>Tacaimbó</t>
+  </si>
+  <si>
+    <t>Águas Belas</t>
+  </si>
+  <si>
+    <t>Agreste Meridional</t>
+  </si>
+  <si>
+    <t>Angelim</t>
+  </si>
+  <si>
+    <t>Bom Conselho</t>
+  </si>
+  <si>
+    <t>Brejão</t>
+  </si>
+  <si>
+    <t>Buíque</t>
+  </si>
+  <si>
+    <t>Caetés</t>
+  </si>
+  <si>
+    <t>Calçado</t>
+  </si>
+  <si>
+    <t>Canhotinho</t>
+  </si>
+  <si>
+    <t>Capoeiras</t>
+  </si>
+  <si>
+    <t>Correntes</t>
+  </si>
+  <si>
+    <t>Garanhuns</t>
+  </si>
+  <si>
+    <t>Iati</t>
+  </si>
+  <si>
+    <t>Itaíba</t>
+  </si>
+  <si>
+    <t>Jucati</t>
+  </si>
+  <si>
+    <t>Jupi</t>
+  </si>
+  <si>
+    <t>Jurema</t>
+  </si>
+  <si>
+    <t>Lagoa do Ouro</t>
+  </si>
+  <si>
+    <t>Lajedo</t>
+  </si>
+  <si>
+    <t>Palmeirina</t>
+  </si>
+  <si>
+    <t>Paranatama</t>
+  </si>
+  <si>
+    <t>Pedra</t>
+  </si>
+  <si>
+    <t>Saloá</t>
+  </si>
+  <si>
+    <t>São João</t>
+  </si>
+  <si>
+    <t>Terezinha</t>
+  </si>
+  <si>
+    <t>Tupanatinga</t>
+  </si>
+  <si>
+    <t>Venturosa</t>
+  </si>
+  <si>
+    <t>Bom Jardim</t>
+  </si>
+  <si>
+    <t>Agreste Setentrional</t>
+  </si>
+  <si>
+    <t>Casinhas</t>
+  </si>
+  <si>
+    <t>Cumaru</t>
+  </si>
+  <si>
+    <t>Feira Nova</t>
+  </si>
+  <si>
+    <t>Frei Miguelinho</t>
+  </si>
+  <si>
+    <t>João Alfredo</t>
+  </si>
+  <si>
+    <t>Limoeiro</t>
+  </si>
+  <si>
+    <t>Machados</t>
+  </si>
+  <si>
+    <t>Orobó</t>
+  </si>
+  <si>
+    <t>Passira</t>
+  </si>
+  <si>
+    <t>Salgadinho</t>
+  </si>
+  <si>
+    <t>Santa Cruz do Capibaribe</t>
+  </si>
+  <si>
+    <t>Santa Maria do Cambucá</t>
+  </si>
+  <si>
+    <t>São Vicente Férrer</t>
+  </si>
+  <si>
+    <t>Surubim</t>
+  </si>
+  <si>
+    <t>Taquaritinga do Norte</t>
+  </si>
+  <si>
+    <t>Toritama</t>
+  </si>
+  <si>
+    <t>Vertente do Lério</t>
+  </si>
+  <si>
+    <t>Vertentes</t>
+  </si>
+  <si>
+    <t>Camaragibe</t>
+  </si>
+  <si>
+    <t>RMR</t>
+  </si>
+  <si>
+    <t>Metropolitana Centro</t>
+  </si>
+  <si>
+    <t>Olinda</t>
+  </si>
+  <si>
+    <t>Recife</t>
+  </si>
+  <si>
+    <t>Abreu e Lima</t>
+  </si>
+  <si>
+    <t>Araçoiaba</t>
+  </si>
+  <si>
+    <t>Igarassu</t>
+  </si>
+  <si>
+    <t>Ilha de Itamaracá</t>
+  </si>
+  <si>
+    <t>Itapissuma</t>
+  </si>
+  <si>
+    <t>Paulista</t>
+  </si>
+  <si>
+    <t>Cabo de Santo Agostinho</t>
+  </si>
+  <si>
+    <t>Metropolita Oeste Sul</t>
+  </si>
+  <si>
+    <t>Ipojuca</t>
+  </si>
+  <si>
+    <t>Jaboatão dos Guararapes</t>
+  </si>
+  <si>
+    <t>Moreno</t>
+  </si>
+  <si>
+    <t>Fernando de Noronha</t>
+  </si>
+  <si>
+    <t>São Lourenço da Mata</t>
+  </si>
+  <si>
+    <t>Araripina</t>
+  </si>
+  <si>
+    <t>Sertão</t>
+  </si>
+  <si>
+    <t>Sertão do Araripe</t>
+  </si>
+  <si>
+    <t>Bodocó</t>
+  </si>
+  <si>
+    <t>Exu</t>
+  </si>
+  <si>
+    <t>Granito</t>
+  </si>
+  <si>
+    <t>Ipubi</t>
+  </si>
+  <si>
+    <t>Moreilândia</t>
+  </si>
+  <si>
+    <t>Ouricuri</t>
+  </si>
+  <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
+    <t>Santa Filomena</t>
+  </si>
+  <si>
+    <t>Trindade</t>
+  </si>
+  <si>
+    <t>Cedro</t>
+  </si>
+  <si>
+    <t>Sertão Central</t>
+  </si>
+  <si>
+    <t>Mirandiba</t>
+  </si>
+  <si>
+    <t>Parnamirim</t>
+  </si>
+  <si>
+    <t>Salgueiro</t>
+  </si>
+  <si>
+    <t>São José do Belmonte</t>
+  </si>
+  <si>
+    <t>Serrita</t>
+  </si>
+  <si>
+    <t>Terra Nova</t>
+  </si>
+  <si>
+    <t>Verdejante</t>
+  </si>
+  <si>
+    <t>Belém de São Francisco</t>
+  </si>
+  <si>
+    <t>Sertão de Itaparica</t>
+  </si>
+  <si>
+    <t>Carnaubeira da Penha</t>
+  </si>
+  <si>
+    <t>Floresta</t>
+  </si>
+  <si>
+    <t>Itacuruba</t>
+  </si>
+  <si>
+    <t>Jatobá</t>
+  </si>
+  <si>
+    <t>Petrolândia</t>
+  </si>
+  <si>
+    <t>Tacaratu</t>
+  </si>
+  <si>
+    <t>Arcoverde</t>
+  </si>
+  <si>
+    <t>Sertão do Moxotó</t>
+  </si>
+  <si>
+    <t>Betânia</t>
+  </si>
+  <si>
+    <t>Custódia</t>
+  </si>
+  <si>
+    <t>Ibimirim</t>
+  </si>
+  <si>
+    <t>Inajá</t>
+  </si>
+  <si>
+    <t>Manari</t>
+  </si>
+  <si>
+    <t>Sertânia</t>
+  </si>
+  <si>
+    <t>Afogados da Ingazeira</t>
+  </si>
+  <si>
+    <t>Sertão do Pajeú</t>
+  </si>
+  <si>
+    <t>Brejinho</t>
+  </si>
+  <si>
+    <t>Calumbi</t>
+  </si>
+  <si>
+    <t>Carnaíba</t>
+  </si>
+  <si>
+    <t>Flores</t>
+  </si>
+  <si>
+    <t>Iguaraci</t>
+  </si>
+  <si>
+    <t>Ingazeira</t>
+  </si>
+  <si>
+    <t>Itapetim</t>
+  </si>
+  <si>
+    <t>Quixaba</t>
+  </si>
+  <si>
+    <t>Santa Cruz da Baixa Verde</t>
+  </si>
+  <si>
+    <t>Santa Terezinha</t>
+  </si>
+  <si>
+    <t>São José do Egito</t>
+  </si>
+  <si>
+    <t>Serra Talhada</t>
+  </si>
+  <si>
+    <t>Solidão</t>
+  </si>
+  <si>
+    <t>Tabira</t>
+  </si>
+  <si>
+    <t>Triunfo</t>
+  </si>
+  <si>
+    <t>Tuparetama</t>
+  </si>
+  <si>
+    <t>Afrânio</t>
+  </si>
+  <si>
+    <t>Sertão do São Francisco</t>
+  </si>
+  <si>
+    <t>Cabrobó</t>
+  </si>
+  <si>
+    <t>Dormentes</t>
+  </si>
+  <si>
+    <t>Lagoa Grande</t>
+  </si>
+  <si>
+    <t>Orocó</t>
+  </si>
+  <si>
+    <t>Petrolina</t>
+  </si>
+  <si>
+    <t>Santa Maria da Boa Vista</t>
+  </si>
+  <si>
+    <t>Aliança</t>
+  </si>
+  <si>
+    <t>Mata</t>
+  </si>
+  <si>
+    <t>Mata Norte</t>
+  </si>
+  <si>
+    <t>Buenos Aires</t>
+  </si>
+  <si>
+    <t>Camutanga</t>
+  </si>
+  <si>
+    <t>Carpina</t>
+  </si>
+  <si>
+    <t>Chã de Alegria</t>
+  </si>
+  <si>
+    <t>Condado</t>
+  </si>
+  <si>
+    <t>Ferreiros</t>
+  </si>
+  <si>
+    <t>Glória do Goitá</t>
+  </si>
+  <si>
+    <t>Goiana</t>
+  </si>
+  <si>
+    <t>Itambé</t>
+  </si>
+  <si>
+    <t>Itaquitinga</t>
+  </si>
+  <si>
+    <t>Lagoa do Itaenga</t>
+  </si>
+  <si>
+    <t>Lagoa do Carro</t>
+  </si>
+  <si>
+    <t>Macaparana</t>
+  </si>
+  <si>
+    <t>Nazaré da Mata</t>
+  </si>
+  <si>
+    <t>Paudalho</t>
+  </si>
+  <si>
+    <t>Timbaúba</t>
+  </si>
+  <si>
+    <t>Tracunhaém</t>
+  </si>
+  <si>
+    <t>Vicência</t>
+  </si>
+  <si>
+    <t>Água Preta</t>
+  </si>
+  <si>
+    <t>Mata Sul</t>
+  </si>
+  <si>
+    <t>Amaraji</t>
+  </si>
+  <si>
+    <t>Barreiros</t>
+  </si>
+  <si>
+    <t>Belém de Maria</t>
+  </si>
+  <si>
+    <t>Catende</t>
+  </si>
+  <si>
+    <t>Chã Grande</t>
+  </si>
+  <si>
+    <t>Cortês</t>
+  </si>
+  <si>
+    <t>Escada</t>
+  </si>
+  <si>
+    <t>Gameleira</t>
+  </si>
+  <si>
+    <t>Jaqueira</t>
+  </si>
+  <si>
+    <t>Joaquim Nabuco</t>
+  </si>
+  <si>
+    <t>Maraial</t>
+  </si>
+  <si>
+    <t>Palmares</t>
+  </si>
+  <si>
+    <t>Pombos</t>
+  </si>
+  <si>
+    <t>Primavera</t>
+  </si>
+  <si>
+    <t>Quipapá</t>
+  </si>
+  <si>
+    <t>Ribeirão</t>
+  </si>
+  <si>
+    <t>Rio Formoso</t>
+  </si>
+  <si>
+    <t>São Benedito do Sul</t>
+  </si>
+  <si>
+    <t>São José da Coroa Grande</t>
+  </si>
+  <si>
+    <t>Sirinhaém</t>
+  </si>
+  <si>
+    <t>Tamandaré</t>
+  </si>
+  <si>
+    <t>Vitória de Santo Antão</t>
+  </si>
+  <si>
+    <t>Xexéu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -717,7 +706,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -725,140 +714,386 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C189"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.29"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -869,7 +1104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -880,7 +1115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -891,7 +1126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -902,7 +1137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -913,7 +1148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -924,7 +1159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -935,7 +1170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -946,7 +1181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -957,7 +1192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -968,7 +1203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -979,7 +1214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -990,7 +1225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -1001,7 +1236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1012,7 +1247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -1023,7 +1258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -1034,7 +1269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -1045,7 +1280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -1056,7 +1291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
@@ -1067,7 +1302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -1078,7 +1313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
@@ -1089,7 +1324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
@@ -1100,7 +1335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
@@ -1111,7 +1346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
@@ -1122,7 +1357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
@@ -1133,7 +1368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
@@ -1144,7 +1379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
@@ -1155,7 +1390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>31</v>
       </c>
@@ -1166,7 +1401,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
@@ -1177,7 +1412,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
@@ -1188,7 +1423,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
@@ -1199,7 +1434,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>36</v>
       </c>
@@ -1210,7 +1445,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
@@ -1221,7 +1456,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>38</v>
       </c>
@@ -1232,7 +1467,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>39</v>
       </c>
@@ -1243,7 +1478,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>40</v>
       </c>
@@ -1254,7 +1489,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>41</v>
       </c>
@@ -1265,7 +1500,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>42</v>
       </c>
@@ -1276,7 +1511,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>43</v>
       </c>
@@ -1287,7 +1522,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>44</v>
       </c>
@@ -1298,7 +1533,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>45</v>
       </c>
@@ -1309,7 +1544,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
@@ -1320,7 +1555,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>47</v>
       </c>
@@ -1331,7 +1566,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>48</v>
       </c>
@@ -1342,7 +1577,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>49</v>
       </c>
@@ -1353,7 +1588,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>50</v>
       </c>
@@ -1364,7 +1599,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>51</v>
       </c>
@@ -1375,7 +1610,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>52</v>
       </c>
@@ -1386,7 +1621,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>53</v>
       </c>
@@ -1397,7 +1632,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>54</v>
       </c>
@@ -1408,7 +1643,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>55</v>
       </c>
@@ -1419,7 +1654,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>56</v>
       </c>
@@ -1430,7 +1665,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -1441,7 +1676,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>58</v>
       </c>
@@ -1452,7 +1687,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>60</v>
       </c>
@@ -1463,7 +1698,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>61</v>
       </c>
@@ -1474,7 +1709,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>62</v>
       </c>
@@ -1485,7 +1720,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>63</v>
       </c>
@@ -1496,7 +1731,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>64</v>
       </c>
@@ -1507,7 +1742,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>65</v>
       </c>
@@ -1518,7 +1753,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>66</v>
       </c>
@@ -1529,7 +1764,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>67</v>
       </c>
@@ -1540,7 +1775,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>68</v>
       </c>
@@ -1551,7 +1786,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>69</v>
       </c>
@@ -1562,7 +1797,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>70</v>
       </c>
@@ -1573,7 +1808,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>71</v>
       </c>
@@ -1584,7 +1819,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>72</v>
       </c>
@@ -1595,7 +1830,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>73</v>
       </c>
@@ -1606,7 +1841,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>74</v>
       </c>
@@ -1617,7 +1852,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>75</v>
       </c>
@@ -1628,7 +1863,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>76</v>
       </c>
@@ -1639,7 +1874,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>77</v>
       </c>
@@ -1650,7 +1885,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>78</v>
       </c>
@@ -1661,7 +1896,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>81</v>
       </c>
@@ -1672,7 +1907,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>82</v>
       </c>
@@ -1683,7 +1918,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>83</v>
       </c>
@@ -1694,7 +1929,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>84</v>
       </c>
@@ -1705,7 +1940,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>85</v>
       </c>
@@ -1716,7 +1951,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>86</v>
       </c>
@@ -1727,7 +1962,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>87</v>
       </c>
@@ -1738,7 +1973,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>88</v>
       </c>
@@ -1749,7 +1984,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:3" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>89</v>
       </c>
@@ -1760,7 +1995,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>91</v>
       </c>
@@ -1771,7 +2006,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:3" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>92</v>
       </c>
@@ -1782,7 +2017,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>93</v>
       </c>
@@ -1793,7 +2028,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:3" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>94</v>
       </c>
@@ -1804,7 +2039,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:3" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>95</v>
       </c>
@@ -1815,7 +2050,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>96</v>
       </c>
@@ -1826,7 +2061,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>99</v>
       </c>
@@ -1837,7 +2072,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>100</v>
       </c>
@@ -1848,7 +2083,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>101</v>
       </c>
@@ -1859,7 +2094,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>102</v>
       </c>
@@ -1870,7 +2105,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>103</v>
       </c>
@@ -1881,7 +2116,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>104</v>
       </c>
@@ -1892,7 +2127,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>105</v>
       </c>
@@ -1903,7 +2138,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>106</v>
       </c>
@@ -1914,7 +2149,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>107</v>
       </c>
@@ -1925,7 +2160,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>108</v>
       </c>
@@ -1936,7 +2171,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>110</v>
       </c>
@@ -1947,7 +2182,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>111</v>
       </c>
@@ -1958,7 +2193,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>112</v>
       </c>
@@ -1969,7 +2204,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:3" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>113</v>
       </c>
@@ -1980,7 +2215,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>114</v>
       </c>
@@ -1991,7 +2226,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>115</v>
       </c>
@@ -2002,7 +2237,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>116</v>
       </c>
@@ -2013,7 +2248,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:3" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>117</v>
       </c>
@@ -2024,7 +2259,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:3" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
         <v>119</v>
       </c>
@@ -2035,7 +2270,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
         <v>120</v>
       </c>
@@ -2046,7 +2281,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>121</v>
       </c>
@@ -2057,7 +2292,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
         <v>122</v>
       </c>
@@ -2068,7 +2303,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
         <v>123</v>
       </c>
@@ -2079,7 +2314,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>124</v>
       </c>
@@ -2090,7 +2325,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>125</v>
       </c>
@@ -2101,7 +2336,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
         <v>127</v>
       </c>
@@ -2112,7 +2347,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>128</v>
       </c>
@@ -2123,7 +2358,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
         <v>129</v>
       </c>
@@ -2134,7 +2369,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>130</v>
       </c>
@@ -2145,7 +2380,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
         <v>131</v>
       </c>
@@ -2156,7 +2391,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
         <v>132</v>
       </c>
@@ -2167,7 +2402,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:3" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
         <v>133</v>
       </c>
@@ -2178,7 +2413,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
         <v>135</v>
       </c>
@@ -2189,7 +2424,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
         <v>136</v>
       </c>
@@ -2200,7 +2435,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
         <v>137</v>
       </c>
@@ -2211,7 +2446,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
         <v>138</v>
       </c>
@@ -2222,7 +2457,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
         <v>139</v>
       </c>
@@ -2233,7 +2468,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>140</v>
       </c>
@@ -2244,7 +2479,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
         <v>141</v>
       </c>
@@ -2255,7 +2490,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
         <v>142</v>
       </c>
@@ -2266,7 +2501,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:3" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
         <v>143</v>
       </c>
@@ -2277,7 +2512,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
         <v>144</v>
       </c>
@@ -2288,7 +2523,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>145</v>
       </c>
@@ -2299,7 +2534,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
         <v>146</v>
       </c>
@@ -2310,7 +2545,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
         <v>147</v>
       </c>
@@ -2321,7 +2556,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
         <v>148</v>
       </c>
@@ -2332,7 +2567,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>149</v>
       </c>
@@ -2343,7 +2578,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
         <v>150</v>
       </c>
@@ -2354,7 +2589,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
         <v>151</v>
       </c>
@@ -2365,7 +2600,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
         <v>153</v>
       </c>
@@ -2376,7 +2611,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
         <v>154</v>
       </c>
@@ -2387,7 +2622,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
         <v>155</v>
       </c>
@@ -2398,7 +2633,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
         <v>156</v>
       </c>
@@ -2409,7 +2644,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
         <v>157</v>
       </c>
@@ -2420,7 +2655,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:3" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
         <v>158</v>
       </c>
@@ -2431,7 +2666,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
         <v>159</v>
       </c>
@@ -2442,7 +2677,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>162</v>
       </c>
@@ -2453,7 +2688,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
         <v>163</v>
       </c>
@@ -2464,7 +2699,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
         <v>164</v>
       </c>
@@ -2475,7 +2710,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
         <v>165</v>
       </c>
@@ -2486,7 +2721,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
         <v>166</v>
       </c>
@@ -2497,7 +2732,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
         <v>167</v>
       </c>
@@ -2508,7 +2743,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
         <v>168</v>
       </c>
@@ -2519,7 +2754,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="7" t="s">
         <v>169</v>
       </c>
@@ -2530,7 +2765,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
         <v>170</v>
       </c>
@@ -2541,7 +2776,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
         <v>171</v>
       </c>
@@ -2552,7 +2787,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="s">
         <v>172</v>
       </c>
@@ -2563,7 +2798,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="7" t="s">
         <v>173</v>
       </c>
@@ -2574,7 +2809,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="7" t="s">
         <v>174</v>
       </c>
@@ -2585,7 +2820,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="7" t="s">
         <v>175</v>
       </c>
@@ -2596,7 +2831,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="7" t="s">
         <v>176</v>
       </c>
@@ -2607,7 +2842,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
         <v>177</v>
       </c>
@@ -2618,7 +2853,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
         <v>178</v>
       </c>
@@ -2629,7 +2864,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
         <v>179</v>
       </c>
@@ -2640,7 +2875,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
         <v>180</v>
       </c>
@@ -2651,7 +2886,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
         <v>182</v>
       </c>
@@ -2662,7 +2897,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
         <v>183</v>
       </c>
@@ -2673,7 +2908,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
         <v>184</v>
       </c>
@@ -2684,7 +2919,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="s">
         <v>185</v>
       </c>
@@ -2695,7 +2930,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="7" t="s">
         <v>186</v>
       </c>
@@ -2706,7 +2941,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="7" t="s">
         <v>187</v>
       </c>
@@ -2717,7 +2952,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="7" t="s">
         <v>188</v>
       </c>
@@ -2728,7 +2963,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="7" t="s">
         <v>189</v>
       </c>
@@ -2739,7 +2974,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="7" t="s">
         <v>190</v>
       </c>
@@ -2750,7 +2985,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="7" t="s">
         <v>191</v>
       </c>
@@ -2761,7 +2996,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
         <v>192</v>
       </c>
@@ -2772,7 +3007,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="7" t="s">
         <v>193</v>
       </c>
@@ -2783,7 +3018,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="7" t="s">
         <v>194</v>
       </c>
@@ -2794,7 +3029,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
         <v>195</v>
       </c>
@@ -2805,7 +3040,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
         <v>196</v>
       </c>
@@ -2816,7 +3051,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="s">
         <v>197</v>
       </c>
@@ -2827,7 +3062,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
         <v>198</v>
       </c>
@@ -2838,7 +3073,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:3" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
         <v>199</v>
       </c>
@@ -2849,7 +3084,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:3" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
         <v>200</v>
       </c>
@@ -2860,7 +3095,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
         <v>201</v>
       </c>
@@ -2871,7 +3106,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="7" t="s">
         <v>202</v>
       </c>
@@ -2882,7 +3117,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:3" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="s">
         <v>203</v>
       </c>
@@ -2893,7 +3128,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="7" t="s">
         <v>204</v>
       </c>
@@ -2904,28 +3139,30 @@
         <v>181</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A187" s="8"/>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
     </row>
-    <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A188" s="9"/>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
     </row>
-    <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A189" s="9"/>
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <autoFilter ref="A1:C186" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Lagoa do Itaenga"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>